--- a/cv06-pairwise/hw05_pairwise.xlsx
+++ b/cv06-pairwise/hw05_pairwise.xlsx
@@ -1,16 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
     <sheet name="Pairwise" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -68,85 +64,137 @@
     <t>Slevovy kupon</t>
   </si>
   <si>
-    <t>Zvkastni znaky</t>
+    <t>Zvlastni znaky</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="4">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffffffff"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office Theme">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4F81BD"/>
@@ -170,82 +218,22 @@
         <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="FF00FF"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office Theme">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office Theme">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -277,20 +265,16 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="129999"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -302,7 +286,7 @@
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
-              <a:satMod val="105000"/>
+              <a:satMod val="104999"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
@@ -323,16 +307,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -341,23 +316,21 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -412,323 +385,1185 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:noAutofit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:lnDef>
+    <a:txDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:txDef>
+  </a:objectDefaults>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="17.567139" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="17.567139" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="11.711426" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="8.85156" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6719" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.8516" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
-      <c r="B1" s="1" t="s">
+    <row r="1" ht="13.55" customHeight="1">
+      <c r="A1" s="2"/>
+      <c r="B1" t="s" s="3">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s" s="3">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s" s="3">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s" s="3">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1">
-      <c r="A2" s="1">
+    <row r="2" ht="13.55" customHeight="1">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s" s="3">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s" s="3">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s" s="3">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s" s="3">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" t="s" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1">
-      <c r="A3" s="1">
+    <row r="3" ht="13.55" customHeight="1">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s" s="3">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s" s="3">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s" s="3">
         <v>11</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" t="s" s="3">
         <v>12</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" t="s" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="2" customFormat="1">
-      <c r="A4" s="1">
+    <row r="4" ht="13.55" customHeight="1">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s" s="3">
         <v>14</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s" s="3">
         <v>6</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s" s="3">
         <v>11</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" t="s" s="3">
         <v>8</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" t="s" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="2" customFormat="1">
-      <c r="A5" s="1">
+    <row r="5" ht="13.55" customHeight="1">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s" s="3">
         <v>14</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s" s="3">
         <v>10</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s" s="3">
         <v>15</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" t="s" s="3">
         <v>12</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" t="s" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="2" customFormat="1">
-      <c r="A6" s="1">
+    <row r="6" ht="13.55" customHeight="1">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s" s="3">
         <v>14</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s" s="3">
         <v>16</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" t="s" s="3">
         <v>7</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" t="s" s="3">
         <v>12</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" t="s" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="2" customFormat="1">
-      <c r="A7" s="1">
+    <row r="7" ht="13.55" customHeight="1">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s" s="3">
         <v>17</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s" s="3">
         <v>10</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" t="s" s="3">
         <v>15</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" t="s" s="3">
         <v>12</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" t="s" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="2" customFormat="1">
-      <c r="A8" s="1">
+    <row r="8" ht="13.55" customHeight="1">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s" s="3">
         <v>17</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s" s="3">
         <v>16</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" t="s" s="3">
         <v>7</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" t="s" s="3">
         <v>8</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" t="s" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="2" customFormat="1">
-      <c r="A9" s="1">
+    <row r="9" ht="13.55" customHeight="1">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s" s="3">
         <v>17</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" t="s" s="3">
         <v>16</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" t="s" s="3">
         <v>11</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" t="s" s="3">
         <v>12</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" t="s" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="2" customFormat="1">
-      <c r="A10" s="1">
+    <row r="10" ht="13.55" customHeight="1">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s" s="3">
         <v>17</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s" s="3">
         <v>6</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" t="s" s="3">
         <v>15</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" t="s" s="3">
         <v>8</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" t="s" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="2" customFormat="1">
-      <c r="A11" s="1">
+    <row r="11" ht="13.55" customHeight="1">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s" s="3">
         <v>5</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s" s="3">
         <v>16</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" t="s" s="3">
         <v>11</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" t="s" s="3">
         <v>8</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" t="s" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="2" customFormat="1">
-      <c r="A12" s="1">
+    <row r="12" ht="13.55" customHeight="1">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s" s="3">
         <v>5</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" t="s" s="3">
         <v>16</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" t="s" s="3">
         <v>15</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" t="s" s="3">
         <v>12</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" t="s" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="2" customFormat="1">
-      <c r="A13" s="1">
+    <row r="13" ht="13.55" customHeight="1">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s" s="3">
         <v>5</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" t="s" s="3">
         <v>6</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" t="s" s="3">
         <v>15</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" t="s" s="3">
         <v>8</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" t="s" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="2" customFormat="1">
-      <c r="A14" s="1">
+    <row r="14" ht="13.55" customHeight="1">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s" s="3">
         <v>5</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" t="s" s="3">
         <v>10</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" t="s" s="3">
         <v>7</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" t="s" s="3">
         <v>12</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" t="s" s="3">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>